--- a/output/joined_bycandidate.xlsx
+++ b/output/joined_bycandidate.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LOU</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>FRILLMAN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>LOU</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GARRISON</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D47">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GILBERT</t>
+          <t>GARRISON</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="D48">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GILL</t>
+          <t>GILBERT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D49">
@@ -1347,16 +1347,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GOODMAN</t>
+          <t>GILL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BARRY</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1367,16 +1367,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HAMAMOTO</t>
+          <t>GOODMAN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PAM</t>
+          <t>BARRY</t>
         </is>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1387,16 +1387,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HARPOOTLIAN</t>
+          <t>HAMAMOTO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RICHARD</t>
+          <t>PAM</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1407,16 +1407,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HARRIS</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1427,16 +1427,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>HARPOOTLIAN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>RICHARD</t>
         </is>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1447,16 +1447,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HICKEY</t>
+          <t>HARRIS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1467,16 +1467,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>HICKEY</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="D57">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="D58">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KIANI</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MASSI</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D59">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KRAMER</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ORIN</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="D60">
@@ -1567,16 +1567,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>KIANI</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CLIFF</t>
+          <t>MASSI</t>
         </is>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1587,16 +1587,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>KRAMER</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SUZI</t>
+          <t>ORIN</t>
         </is>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1607,16 +1607,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAMET</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NOAH</t>
+          <t>CLIFF</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1627,16 +1627,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>SUZI</t>
         </is>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCAULIFFE</t>
+          <t>MAMET</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TERENCE</t>
+          <t>NOAH</t>
         </is>
       </c>
       <c r="D65">
@@ -1667,16 +1667,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MCFADDEN-LAWSON</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MATTIE</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1687,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>MCAULIFFE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>TERENCE</t>
         </is>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1707,16 +1707,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>MCFADDEN-LAWSON</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>MATTIE</t>
         </is>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1727,16 +1727,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MUNOZ</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HENRY</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="D70">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NICHOLS</t>
+          <t>MUNOZ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="D71">
@@ -1787,12 +1787,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>OBLANDER</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>KRISTIN</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="D72">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>NICHOLS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D73">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PARHAM</t>
+          <t>OBLANDER</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>KRISTIN</t>
         </is>
       </c>
       <c r="D74">
@@ -1847,16 +1847,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>COOKIE</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1867,16 +1867,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>PARHAM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>YOLANDA</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1887,16 +1887,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PATTERSON</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CARY</t>
+          <t>COOKIE</t>
         </is>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -1907,16 +1907,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PAUL</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GARY</t>
+          <t>YOLANDA</t>
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -1927,16 +1927,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>PATTERSON</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>CARY</t>
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PHILLIPS</t>
+          <t>PAUL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>GARY</t>
         </is>
       </c>
       <c r="D80">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POHLAD</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="D81">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RAJI</t>
+          <t>PHILLIPS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AZITA</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="D82">
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RANDLETT</t>
+          <t>POHLAD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>WADE</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RUEFF</t>
+          <t>RAJI</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>RUSTY</t>
+          <t>AZITA</t>
         </is>
       </c>
       <c r="D84">
@@ -2047,16 +2047,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>RANDLETT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>WADE</t>
         </is>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2067,12 +2067,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SHERMAN</t>
+          <t>RUEFF</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>RUSTY</t>
         </is>
       </c>
       <c r="D86">
@@ -2087,16 +2087,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SHERMAN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>BOB</t>
         </is>
       </c>
       <c r="D88">
@@ -2127,16 +2127,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2147,12 +2147,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="D90">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>STEIN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BOBBY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="D91">
@@ -2187,16 +2187,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>STETSON</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TANNER</t>
+          <t>STEIN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>JUSTIN</t>
+          <t>BOBBY</t>
         </is>
       </c>
       <c r="D93">
@@ -2227,16 +2227,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TSUNIS</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GEORGE</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WEINSTEIN</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ANDREW</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D95">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WESTLY</t>
+          <t>TANNER</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>STEVE</t>
+          <t>JUSTIN</t>
         </is>
       </c>
       <c r="D96">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WHEELER</t>
+          <t>WESTLY</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>STEVE</t>
         </is>
       </c>
       <c r="D97">
@@ -2307,16 +2307,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>WHEELER</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2327,36 +2327,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>WILBOURN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>MACK</t>
         </is>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>BIDEN, JOSEPH R. JR.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AVANT</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NICOLE</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -2367,16 +2367,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>NICOLE</t>
         </is>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2387,16 +2387,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CONEY</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>LES</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2407,16 +2407,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CORZINE</t>
+          <t>CONEY</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>JON</t>
+          <t>LES</t>
         </is>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2427,12 +2427,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COSTOS</t>
+          <t>CORZINE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JON</t>
         </is>
       </c>
       <c r="D104">
@@ -2447,16 +2447,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DEWITT</t>
+          <t>COSTOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MEREDITH</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2467,16 +2467,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>DEWITT</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>MEREDITH</t>
         </is>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2487,16 +2487,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HALPERN</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D108">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>HALPERN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="D109">
@@ -2547,16 +2547,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JOAN</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="D111">
@@ -2587,16 +2587,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KEMPNER</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>JOAN</t>
         </is>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>KEMPNER</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D113">
@@ -2627,16 +2627,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SUZI</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2647,16 +2647,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAMET</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>NOAH</t>
+          <t>SUZI</t>
         </is>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PARHAM</t>
+          <t>MAMET</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>NOAH</t>
         </is>
       </c>
       <c r="D116">
@@ -2687,16 +2687,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>PARHAM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2707,16 +2707,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RUEFF</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>RUSTY</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -2727,16 +2727,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>RUEFF</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>RUSTY</t>
         </is>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2747,16 +2747,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SINGH</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>AMY</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2767,16 +2767,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>SINGH</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>AMY</t>
         </is>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2787,16 +2787,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -2807,12 +2807,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="D123">
@@ -2827,36 +2827,36 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BULLOCK, STEVE</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ACKER</t>
+          <t>WILBOURN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>GERALD</t>
+          <t>MACK</t>
         </is>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -2867,16 +2867,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>ACKER</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>GERALD</t>
         </is>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2887,16 +2887,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>JUSTIN</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>HECKLER</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>JUSTIN</t>
         </is>
       </c>
       <c r="D128">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>HECKLER</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>ALEX</t>
         </is>
       </c>
       <c r="D129">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KRAMER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ORIN</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D130">
@@ -2967,16 +2967,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LEVINE</t>
+          <t>KRAMER</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CLIFF</t>
+          <t>ORIN</t>
         </is>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>LEVINE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>CLIFF</t>
         </is>
       </c>
       <c r="D132">
@@ -3007,16 +3007,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="D134">
@@ -3042,21 +3042,21 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BUTTIGIEG, PETE</t>
+          <t>BULLOCK, STEVE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AVANT</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NICOLE</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3067,16 +3067,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BROAS</t>
+          <t>AVANT</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>NICOLE</t>
         </is>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CONNORS</t>
+          <t>BROAS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="D137">
@@ -3107,16 +3107,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CORZINE</t>
+          <t>COHEN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>JON</t>
+          <t>STEVE</t>
         </is>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>COSTOS</t>
+          <t>CONNORS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="D139">
@@ -3147,16 +3147,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DEWITT</t>
+          <t>CORZINE</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MEREDITH</t>
+          <t>JON</t>
         </is>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3167,16 +3167,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>EYCHANER</t>
+          <t>COSTOS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>FRED</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3187,16 +3187,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FORD</t>
+          <t>DEWITT</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>MEREDITH</t>
         </is>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3207,16 +3207,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>EYCHANER</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>FRED</t>
         </is>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3227,12 +3227,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>FARMER</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>ELSPETH</t>
         </is>
       </c>
       <c r="D144">
@@ -3247,16 +3247,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>FORD</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>JOAN</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="D146">
@@ -3287,16 +3287,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3307,16 +3307,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>KEMPNER</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3327,16 +3327,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>JOAN</t>
         </is>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LEVI</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>JILL</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D150">
@@ -3367,16 +3367,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>KEMPNER</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MURPHY</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="D152">
@@ -3407,16 +3407,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>LEVI</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>JILL</t>
         </is>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3427,16 +3427,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NICHOLS</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>LINDA</t>
         </is>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -3447,16 +3447,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>MURPHY</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>RYAN</t>
         </is>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3467,16 +3467,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -3487,16 +3487,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PHILLIPS</t>
+          <t>NICHOLS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3507,12 +3507,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>RICKETTS</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>LAURA</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="D158">
@@ -3527,16 +3527,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>RUSSELL</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MARGARET</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3547,16 +3547,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>PHILLIPS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -3567,16 +3567,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SCHUSTER</t>
+          <t>RICKETTS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ELAINE</t>
+          <t>LAURA</t>
         </is>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3587,16 +3587,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>RUSSELL</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>MARGARET</t>
         </is>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3607,16 +3607,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -3627,16 +3627,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>SCHUSTER</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>ELAINE</t>
         </is>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3647,16 +3647,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -3667,12 +3667,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>STETSON</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="D166">
@@ -3687,16 +3687,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SUSMAN</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SALLY</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3707,52 +3707,52 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CASTRO, JULIAN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CASTRO, JULIAN</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SEPULVEDA</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EUGENE</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D170">
@@ -3762,101 +3762,101 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DE BLASIO, BILL</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>SUSMAN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>SALLY</t>
         </is>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DE BLASIO, BILL</t>
+          <t>BUTTIGIEG, PETE</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TSUNIS</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GEORGE</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>CASTRO, JULIAN</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BERNSTEIN</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>CASTRO, JULIAN</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>SEPULVEDA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>EUGENE</t>
         </is>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GILLIBRAND, KIRSTEN</t>
+          <t>DE BLASIO, BILL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>EMERSON</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -3867,16 +3867,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>BERNSTEIN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>TOM</t>
         </is>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="D177">
@@ -3907,16 +3907,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>EMERSON</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D179">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="D180">
@@ -3967,72 +3967,72 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BAGLEY</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>GILLIBRAND, KIRSTEN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BROWN</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>KAWANNA</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="D184">
@@ -4047,16 +4047,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CORZINE</t>
+          <t>BAGLEY</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>JON</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4067,16 +4067,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DRAPER</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BECKY</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4087,16 +4087,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>KAWANNA</t>
         </is>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4107,16 +4107,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FIDLER</t>
+          <t>CORZINE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GENINE</t>
+          <t>JON</t>
         </is>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4127,16 +4127,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FIDLER</t>
+          <t>DRAPER</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>JOSH</t>
+          <t>BECKY</t>
         </is>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="D190">
@@ -4167,16 +4167,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>FIDLER</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>GENINE</t>
         </is>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>HEYMAN</t>
+          <t>FIDLER</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BRUCE</t>
+          <t>JOSH</t>
         </is>
       </c>
       <c r="D192">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>HEYMAN</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>VICKI</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D193">
@@ -4227,16 +4227,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JACOBS</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>IRWIN</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4247,16 +4247,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>KELLER</t>
+          <t>HEYMAN</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>JANET</t>
+          <t>BRUCE</t>
         </is>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4267,16 +4267,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>LASRY</t>
+          <t>HEYMAN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>VICKI</t>
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4287,16 +4287,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>LASSITER</t>
+          <t>JACOBS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MAI</t>
+          <t>IRWIN</t>
         </is>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4307,12 +4307,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MADDOX</t>
+          <t>KELLER</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>KERMAN</t>
+          <t>JANET</t>
         </is>
       </c>
       <c r="D198">
@@ -4327,16 +4327,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MURPHY</t>
+          <t>LASRY</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -4347,12 +4347,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MYERS</t>
+          <t>LASSITER</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>MAI</t>
         </is>
       </c>
       <c r="D200">
@@ -4367,16 +4367,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>MADDOX</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>KERMAN</t>
         </is>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -4387,12 +4387,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PAREKH</t>
+          <t>MURPHY</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DEVEN</t>
+          <t>RYAN</t>
         </is>
       </c>
       <c r="D202">
@@ -4407,12 +4407,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PENSKY</t>
+          <t>MYERS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>CAROL</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="D203">
@@ -4427,16 +4427,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SOLOMON</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -4447,16 +4447,16 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>WILBOURN</t>
+          <t>PAREKH</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MACK</t>
+          <t>DEVEN</t>
         </is>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -4467,16 +4467,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>WINTOUR</t>
+          <t>PENSKY</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ANNA</t>
+          <t>CAROL</t>
         </is>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4487,56 +4487,56 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>SOLOMON</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BLUHM</t>
+          <t>WINTOUR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NEIL</t>
+          <t>ANNA</t>
         </is>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -4547,16 +4547,16 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>BLUHM</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>NEIL</t>
         </is>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4567,16 +4567,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -4587,16 +4587,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>HOBSON</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MELLODY</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D213">
@@ -4627,16 +4627,16 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>HOBSON</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>MELLODY</t>
         </is>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>WESNER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>ALEXA</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D215">
@@ -4662,21 +4662,21 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>INSLEE, JAY R.</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BENIOFF</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MARC</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -4687,16 +4687,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>BENIOFF</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>MARC</t>
         </is>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -4707,36 +4707,36 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SACCA</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CHRIS</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>KLOBUCHAR, AMY J.</t>
+          <t>INSLEE, JAY R.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BAGLEY</t>
+          <t>SACCA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>CHRIS</t>
         </is>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
@@ -4747,16 +4747,16 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>BAGLEY</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -4767,16 +4767,16 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>EYCHANER</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>FRED</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -4787,12 +4787,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>EYCHANER</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>FRED</t>
         </is>
       </c>
       <c r="D222">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>HEINS</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D223">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>HEINS</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TONY</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="D224">
@@ -4847,12 +4847,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>TONY</t>
         </is>
       </c>
       <c r="D225">
@@ -4867,16 +4867,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MILLER</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -4887,16 +4887,16 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ROSEN</t>
+          <t>MILLER</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>JACK</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -4907,16 +4907,16 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SNYDER</t>
+          <t>ROSEN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>JAY</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -4927,16 +4927,16 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SPAHN</t>
+          <t>SNYDER</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>JAY</t>
         </is>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -4947,32 +4947,32 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>SPAHN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>ANDY</t>
         </is>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GALLOGLY</t>
+          <t>STETSON</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="D231">
@@ -4982,21 +4982,21 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MOULTON, SETH</t>
+          <t>KLOBUCHAR, AMY J.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233">
@@ -5007,32 +5007,32 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>GALLOGLY</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>BESHAR</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PETER</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D234">
@@ -5042,21 +5042,21 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>MOULTON, SETH</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -5067,12 +5067,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EFFRON</t>
+          <t>BESHAR</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BLAIR</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="D236">
@@ -5087,12 +5087,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>HARTLEY</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>JANE</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D237">
@@ -5107,16 +5107,16 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>EFFRON</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>BLAIR</t>
         </is>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5127,16 +5127,16 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NEWBERGER</t>
+          <t>HARTLEY</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>TAMAR</t>
+          <t>JANE</t>
         </is>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -5147,16 +5147,16 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>REEVES</t>
+          <t>KATZENBERG</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>BEVERLY</t>
+          <t>JEFFREY</t>
         </is>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SOLOW</t>
+          <t>MCLARTY</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>MARY ALICE</t>
         </is>
       </c>
       <c r="D241">
@@ -5182,37 +5182,37 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BERGER</t>
+          <t>NEWBERGER</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>TAMAR</t>
         </is>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CONLON</t>
+          <t>REEVES</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>KEVIN</t>
+          <t>BEVERLY</t>
         </is>
       </c>
       <c r="D243">
@@ -5222,81 +5222,81 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RYAN, TIMOTHY J.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>SOLOW</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ROBERT</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="D244">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ALDERMAN</t>
+          <t>BERGER</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>CONLON</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>DOUG</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SWALWELL, ERIC</t>
+          <t>RYAN, TIMOTHY J.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>GOLDMAN</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248">
@@ -5307,76 +5307,76 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>RANDLETT</t>
+          <t>ALDERMAN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>WADE</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BARBER</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>ROB</t>
+          <t>DOUG</t>
         </is>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>KATZENBERG</t>
+          <t>GOLDMAN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>WARREN, ELIZABETH</t>
+          <t>SWALWELL, ERIC</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>RANDLETT</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>LINDA</t>
+          <t>WADE</t>
         </is>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -5387,15 +5387,75 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
+          <t>BARBER</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ROB</t>
+        </is>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>WARREN, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>KATZENBERG</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>JEFFREY</t>
+        </is>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>WARREN, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MASON</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>LINDA</t>
+        </is>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>WARREN, ELIZABETH</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
           <t>SACCA</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>CHRIS</t>
         </is>
       </c>
-      <c r="D252">
+      <c r="D255">
         <v>5</v>
       </c>
     </row>
